--- a/RW Files/TestModelRuns/07_July Models/MtomToCrss_Annual.xlsx
+++ b/RW Files/TestModelRuns/07_July Models/MtomToCrss_Annual.xlsx
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>10069807.747840716</v>
+        <v>10069807.79058357</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
-        <v>10352228.051840715</v>
+        <v>10352228.094583571</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -3329,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>8587570.2131973114</v>
+        <v>8587570.2347199731</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
-        <v>8728198.2431973144</v>
+        <v>8728198.2647199742</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -7952,13 +7952,13 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>8617022.5327112917</v>
+        <v>8617022.5542262942</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
-        <v>8767620.2027112935</v>
+        <v>8767620.2242262959</v>
       </c>
       <c r="U3">
         <v>0</v>
